--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\yes breed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77DEC4A-E9B5-4F96-95E0-2B87EFE0FCA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB94B9-88F1-41F6-8E7D-6EF55126EBC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>TC47_Canine_Filter_Breed-YorkshireTerr_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (s:study) WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies MATCH (d:diagnosis) WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis) WHERE demo.breed IN ['Yorkshire Terrier']  OPTIONAL MATCH (f:file)-[*]-&gt;(c), (samp:sample)-[*]-&gt;(c) WITH DISTINCT c AS c, p, s, demo, diag, f, samp RETURN count(DISTINCT(f)) as number_of_files , count(DISTINCT(samp)) as number_of_sample , count(DISTINCT(c.case_id)) as number_of_cases , count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
-  </si>
-  <si>
     <t>MATCH (f:file)--&gt;(parent)
 WITH DISTINCT f, parent
 MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
@@ -121,6 +118,22 @@
         coalesce(diag.best_response, '') AS `Response to Treatment`,
         coalesce(co.cohort_description, '') AS `Cohort`
 </t>
+  </si>
+  <si>
+    <t>MATCH (s:study)
+  WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies
+  MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies
+  MATCH (d:diagnosis)
+  WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies
+  MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+    WHERE demo.breed IN ['Yorkshire Terrier']
+  OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+  OPTIONAL MATCH (samp:sample)-[*]-&gt;(c)
+  WITH DISTINCT c AS c, p, s, demo, diag, f, samp
+  RETURN count(DISTINCT(f)) as number_of_files ,
+             count(DISTINCT(samp)) as number_of_sample ,
+             count(DISTINCT(c.case_id)) as number_of_cases ,
+             count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
   </si>
 </sst>
 </file>
@@ -492,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -539,15 +552,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -561,10 +574,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB94B9-88F1-41F6-8E7D-6EF55126EBC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7D209-DE9C-4F1E-8A0C-C9A71F0EFC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -63,25 +63,6 @@
     <t>TC47_Canine_Filter_Breed-YorkshireTerr_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-WHERE demo.breed IN ['Yorkshire Terrier']
-OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN  coalesce(f.file_name, '') AS `File Name`,
-        coalesce(f.file_type, '') AS `File Type`,
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`,
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
 WHERE demo.breed IN ['Yorkshire Terrier']
 WITH DISTINCT samp AS samp, c, demo, diag
@@ -134,6 +115,23 @@
              count(DISTINCT(samp)) as number_of_sample ,
              count(DISTINCT(c.case_id)) as number_of_cases ,
              count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+WHERE demo.breed IN ['Yorkshire Terrier']
+OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+WITH DISTINCT f, parent, c, demo, diag, s
+RETURN  coalesce(f.file_name, '') AS `File Name`,
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_size, '') AS `Size`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(diag.disease_term,'') AS Diagnosis , 
+        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
 </sst>
 </file>
@@ -505,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -557,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -574,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A7D209-DE9C-4F1E-8A0C-C9A71F0EFC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F4B17-B2EB-4C55-AB89-3D80B87DB516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -124,12 +124,14 @@
 OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
 OPTIONAL MATCH (samp:sample)--&gt;(c)
 WITH DISTINCT f, parent, c, demo, diag, s
-RETURN  coalesce(f.file_name, '') AS `File Name`,
+RETURN coalesce(f.file_name, '') AS `File Name`, 
+        coalesce(f.file_type, '') AS `File Type`, 
         coalesce(labels(parent)[0], '') AS `Association`,
         coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
+        coalesce(f.file_format, '') AS `File Format`,
         coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed , 
         coalesce(diag.disease_term,'') AS Diagnosis , 
         coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
@@ -504,7 +506,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F4B17-B2EB-4C55-AB89-3D80B87DB516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A88070-07FA-4953-AF6F-469FD69402B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -80,27 +80,6 @@
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
   </si>
   <si>
-    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-WHERE demo.breed IN ['Yorkshire Terrier']
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`
-</t>
-  </si>
-  <si>
     <t>MATCH (s:study)
   WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies
   MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies
@@ -134,6 +113,25 @@
         coalesce(demo.breed,'') AS Breed , 
         coalesce(diag.disease_term,'') AS Diagnosis , 
         coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+WHERE demo.breed IN ['Yorkshire Terrier']
+MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co
+RETURN  coalesce(c.case_id, '') AS `Case ID` ,
+        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
+        coalesce(s.clinical_study_type, '') AS  `Study Type`,
+        coalesce(demo.breed, '') AS Breed ,
+        coalesce(diag.disease_term, '') AS Diagnosis ,
+        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
+        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
+        coalesce(demo.sex, '') AS Sex ,
+        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+        coalesce(demo.weight, '') AS `Weight (kg)`,
+        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
 </sst>
 </file>
@@ -505,20 +503,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -535,15 +533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -552,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -560,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -569,15 +567,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A88070-07FA-4953-AF6F-469FD69402B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1BE972-D866-4CF2-AD94-A913703B8028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15510" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>WebExcel</t>
   </si>
@@ -132,6 +132,36 @@
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
         coalesce(diag.best_response, '') AS `Response to Treatment`</t>
+  </si>
+  <si>
+    <t>cartQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+  WHERE demo.breed IN ['Yorkshire Terrier']
+MATCH (f:file)-[*]-&gt;(c)
+WITH COLLECT(DISTINCT f.uuid) AS uuids
+MATCH (f:file)
+  WHERE f.uuid in uuids
+OPTIONAL MATCH (f)--&gt;(parent)
+OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c:case)
+OPTIONAL MATCH (s:study)&lt;-[:member_of]-(c)
+OPTIONAL MATCH (c)--&gt;(i:canine_individual)&lt;--(o:case)
+RETURN
+  f.file_name AS `File Name`,
+  f.file_type AS `File Type`,
+  head(labels(parent)) AS `Association`,
+  f.file_description AS `Description`,
+  f.file_format AS `Format`,
+  f.file_size AS `Size`,
+  samp.sample_id AS `Sample ID`,
+  c.case_id as `Case ID`,
+  i.canine_individual_id AS `Canine ID`,
+  CASE WHEN s.clinical_study_designation IS NULL 
+  THEN parent.clinical_study_designation 
+  ELSE s.clinical_study_designation END AS `Study Code`
+  </t>
   </si>
 </sst>
 </file>
@@ -501,22 +531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" customWidth="1"/>
-    <col min="4" max="4" width="70.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="4" width="75.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -527,13 +557,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -543,14 +576,17 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -560,14 +596,17 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -577,10 +616,13 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1BE972-D866-4CF2-AD94-A913703B8028}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4C5E3-27BD-47B8-90D5-F2B3662A8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15510" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -137,31 +137,16 @@
     <t>cartQuery</t>
   </si>
   <si>
-    <t xml:space="preserve">MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-  WHERE demo.breed IN ['Yorkshire Terrier']
-MATCH (f:file)-[*]-&gt;(c)
-WITH COLLECT(DISTINCT f.uuid) AS uuids
-MATCH (f:file)
-  WHERE f.uuid in uuids
-OPTIONAL MATCH (f)--&gt;(parent)
-OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c:case)
-OPTIONAL MATCH (s:study)&lt;-[:member_of]-(c)
-OPTIONAL MATCH (c)--&gt;(i:canine_individual)&lt;--(o:case)
-RETURN
-  f.file_name AS `File Name`,
-  f.file_type AS `File Type`,
-  head(labels(parent)) AS `Association`,
-  f.file_description AS `Description`,
-  f.file_format AS `Format`,
-  f.file_size AS `Size`,
-  samp.sample_id AS `Sample ID`,
-  c.case_id as `Case ID`,
-  i.canine_individual_id AS `Canine ID`,
-  CASE WHEN s.clinical_study_designation IS NULL 
-  THEN parent.clinical_study_designation 
-  ELSE s.clinical_study_designation END AS `Study Code`
-  </t>
+    <t>MATCH (demo:demographic)
+WHERE demo.breed IN ['Yorkshire Terrier']
+MATCH (demo:demographic)--&gt;(c:case)--&gt;(s:study)--&gt;(p:program)
+OPTIONAL MATCH (c)&lt;-[*]-(samp:sample)
+OPTIONAL MATCH (c)&lt;-[*]-(f:file)
+RETURN 
+	count(DISTINCT(f)) as number_of_files, 
+	count(DISTINCT(samp)) as number_of_sample, 
+	count(DISTINCT(c)) as number_of_cases, 
+	count(DISTINCT(s)) as number_of_study</t>
   </si>
 </sst>
 </file>
@@ -533,20 +518,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" customWidth="1"/>
-    <col min="3" max="4" width="75.7109375" customWidth="1"/>
-    <col min="5" max="5" width="70.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="3" max="4" width="75.6640625" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -566,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -606,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E4C5E3-27BD-47B8-90D5-F2B3662A8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86440E-CB23-4A58-A684-439FF7A5E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -137,16 +137,20 @@
     <t>cartQuery</t>
   </si>
   <si>
-    <t>MATCH (demo:demographic)
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f:file)-[*]-&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
 WHERE demo.breed IN ['Yorkshire Terrier']
-MATCH (demo:demographic)--&gt;(c:case)--&gt;(s:study)--&gt;(p:program)
-OPTIONAL MATCH (c)&lt;-[*]-(samp:sample)
-OPTIONAL MATCH (c)&lt;-[*]-(f:file)
-RETURN 
-	count(DISTINCT(f)) as number_of_files, 
-	count(DISTINCT(samp)) as number_of_sample, 
-	count(DISTINCT(c)) as number_of_cases, 
-	count(DISTINCT(s)) as number_of_study</t>
+RETURN  
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
   </si>
 </sst>
 </file>
@@ -518,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Develop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86440E-CB23-4A58-A684-439FF7A5E837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26363ED-74E4-4194-ADC6-2B08A8D05B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>WebExcel</t>
   </si>
@@ -61,77 +61,6 @@
   </si>
   <si>
     <t>TC47_Canine_Filter_Breed-YorkshireTerr_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
-WHERE demo.breed IN ['Yorkshire Terrier']
-WITH DISTINCT samp AS samp, c, demo, diag
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)
-  WITH COLLECT(DISTINCT(s.clinical_study_designation)) AS all_studies
-  MATCH (d:demographic) WITH COLLECT(DISTINCT(d.breed)) AS all_breeds, COLLECT(DISTINCT(d.sex)) AS all_sexes, all_studies
-  MATCH (d:diagnosis)
-  WITH COLLECT(DISTINCT(d.disease_term)) AS all_diseases, all_breeds, all_sexes, all_studies
-  MATCH (p:program)&lt;-[*]-(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-    WHERE demo.breed IN ['Yorkshire Terrier']
-  OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-  OPTIONAL MATCH (samp:sample)-[*]-&gt;(c)
-  WITH DISTINCT c AS c, p, s, demo, diag, f, samp
-  RETURN count(DISTINCT(f)) as number_of_files ,
-             count(DISTINCT(samp)) as number_of_sample ,
-             count(DISTINCT(c.case_id)) as number_of_cases ,
-             count(DISTINCT(s.clinical_study_designation)) as number_of_study</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)--&gt;(parent)
-WITH DISTINCT f, parent
-MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
-WHERE demo.breed IN ['Yorkshire Terrier']
-OPTIONAL MATCH (s:study)&lt;-[*]-(c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-WITH DISTINCT f, parent, c, demo, diag, s
-RETURN coalesce(f.file_name, '') AS `File Name`, 
-        coalesce(f.file_type, '') AS `File Type`, 
-        coalesce(labels(parent)[0], '') AS `Association`,
-        coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `File Format`,
-        coalesce(f.file_size, '') AS `Size`,
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed , 
-        coalesce(diag.disease_term,'') AS Diagnosis , 
-        coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-WHERE demo.breed IN ['Yorkshire Terrier']
-MATCH (c)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
-WITH DISTINCT c, s, demo, diag, co
-RETURN  coalesce(c.case_id, '') AS `Case ID` ,
-        coalesce(s.clinical_study_designation, '') AS `Study Code` ,
-        coalesce(s.clinical_study_type, '') AS  `Study Type`,
-        coalesce(demo.breed, '') AS Breed ,
-        coalesce(diag.disease_term, '') AS Diagnosis ,
-        coalesce(diag.stage_of_disease, '') AS `Stage of Disease` ,
-        coalesce(demo.patient_age_at_enrollment, '') AS Age ,
-        coalesce(demo.sex, '') AS Sex ,
-        coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
-        coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
   <si>
     <t>cartQuery</t>
@@ -151,6 +80,106 @@
     count(distinct samp) AS Samples,
     count(distinct f) AS `Case Files`,
     count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+WHERE demo.breed IN ['Yorkshire Terrier']
+MATCH (c)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+OPTIONAL MATCH (co:cohort)&lt;-[*]-(c)
+WITH DISTINCT c, s, demo, diag, co, demo.patient_age_at_enrollment AS age
+RETURN  
+       coalesce(c.case_id, '') AS `Case ID`,
+       coalesce(s.clinical_study_designation, '') AS `Study Code`,
+       coalesce(s.clinical_study_type, '') AS  `Study Type`,
+       coalesce(demo.breed, '') AS Breed ,
+       coalesce(diag.disease_term, '') AS Diagnosis ,
+       coalesce(diag.stage_of_disease, '') AS `Stage of Disease`,
+       CASE age % 1 WHEN 0 THEN apoc.convert.toInteger(age) ELSE age END AS Age,
+       coalesce(demo.sex, '') AS Sex,
+       coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
+       coalesce(demo.weight, '') AS `Weight (kg)`,
+       coalesce(diag.best_response, '') AS `Response to Treatment`,
+       coalesce(co.cohort_description, '') AS `Cohort`</t>
+  </si>
+  <si>
+    <t>StudyFilesTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+WHERE demo.breed  IN ['Yorkshire Terrier'] 
+WITH DISTINCT f,  s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+  coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
+WHERE demo.breed IN ['Yorkshire Terrier'] 
+WITH DISTINCT samp AS samp, c, demo, diag
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed,
+        coalesce(diag.disease_term,'') AS Diagnosis, 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(parent)
+WITH DISTINCT f, parent
+MATCH (diag:diagnosis)--&gt;(c)
+OPTIONAL MATCH (f)-[*]-&gt;(samp:sample)
+MATCH (f)-[*]-&gt;(c:case)&lt;--(demo:demographic)
+WHERE demo.breed IN ['Yorkshire Terrier'] 
+OPTIONAL MATCH (s:study)&lt;--(c)&lt;--(diag:diagnosis)&lt;-[*]-(samp)
+WITH
+        f, parent, c, demo, diag, s, samp,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH
+        f, parent, c, demo, diag, s, samp,
+        f.file_size /(1024^i) AS value, 
+        10^precision AS factor,
+        units[i] as unit
+WITH    
+        f, parent, c, demo, diag, s, samp, unit,
+        round(factor * value)/factor AS size
+RETURN 
+        coalesce(f.file_name, '') AS `File Name`,
+        coalesce(f.file_type, '') AS `File Type`,
+        coalesce(labels(parent)[0], '') AS `Association`,
+        coalesce(f.file_description, '') AS `Description`,
+        coalesce(f.file_format, '') AS `Format`,
+        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+        coalesce(samp.sample_id, '') AS `Sample ID`,
+        coalesce(c.case_id, '') AS `Case ID`,
+        coalesce(demo.breed,'') AS Breed ,
+        coalesce(diag.disease_term,'') AS Diagnosis</t>
   </si>
 </sst>
 </file>
@@ -520,22 +549,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.44140625" customWidth="1"/>
-    <col min="3" max="4" width="75.6640625" customWidth="1"/>
-    <col min="5" max="5" width="70.33203125" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="4" width="75.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -546,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -555,18 +584,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -575,18 +604,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -595,23 +624,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
+++ b/InputFiles/TC47_Canine_Filter_Breed-YorkshireTerr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Develop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\FebBranch\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26363ED-74E4-4194-ADC6-2B08A8D05B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9164627A-F809-4A9C-93F2-9C1E6A7982A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -104,32 +104,6 @@
   </si>
   <si>
     <t>StudyFilesTab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  MATCH (f:file)--&gt;(s:study)
-MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
-WHERE demo.breed  IN ['Yorkshire Terrier'] 
-WITH DISTINCT f,  s, c, demo, diag
-WITH
-        f, c, demo, diag, s,
-        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
-        toInteger(floor(log(f.file_size)/log(1024))) as i,
-        2 as precision
-WITH    
-        f, c, demo, diag, s,
-        f.file_size /(1024^i) AS value, 10^precision AS factor,
-        units[i] as unit
-        WITH    
-        f,  c, demo, diag, s, unit,
-        round(factor * value)/factor AS size
-RETURN DISTINCT
-  coalesce(f.file_name, '') AS `File Name`,
-  coalesce(f.file_type, '') AS `File Type`,
-  coalesce("study", '') AS `Association`,
-  coalesce(f.file_description, '') AS `Description`,
-  coalesce(f.file_format, '') AS  Format,
-  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
-  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
   <si>
     <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic), (samp:sample)--&gt;(c)&lt;--(diag:diagnosis) 
@@ -171,15 +145,41 @@
         round(factor * value)/factor AS size
 RETURN 
         coalesce(f.file_name, '') AS `File Name`,
+       coalesce(f.file_format, '') AS `Format`,
         coalesce(f.file_type, '') AS `File Type`,
+       CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
         coalesce(labels(parent)[0], '') AS `Association`,
         coalesce(f.file_description, '') AS `Description`,
-        coalesce(f.file_format, '') AS `Format`,
-        CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
         coalesce(samp.sample_id, '') AS `Sample ID`,
         coalesce(c.case_id, '') AS `Case ID`,
         coalesce(demo.breed,'') AS Breed ,
         coalesce(diag.disease_term,'') AS Diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MATCH (f:file)--&gt;(s:study)
+MATCH (s)&lt;--(c:case)&lt;--(demo:demographic), (c)&lt;--(diag:diagnosis)
+WHERE demo.breed  IN ['Yorkshire Terrier'] 
+WITH DISTINCT f,  s, c, demo, diag
+WITH
+        f, c, demo, diag, s,
+        ['Bytes', 'KB', 'MB', 'GB', 'TB'] AS units,
+        toInteger(floor(log(f.file_size)/log(1024))) as i,
+        2 as precision
+WITH    
+        f, c, demo, diag, s,
+        f.file_size /(1024^i) AS value, 10^precision AS factor,
+        units[i] as unit
+        WITH    
+        f,  c, demo, diag, s, unit,
+        round(factor * value)/factor AS size
+RETURN DISTINCT
+   coalesce(f.file_name, '') AS `File Name`,
+  coalesce(f.file_type, '') AS `File Type`,
+  coalesce("study", '') AS `Association`,
+  coalesce(f.file_description, '') AS `Description`,
+  coalesce(f.file_format, '') AS  Format,
+  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
+  coalesce(s.clinical_study_designation,'') AS `Study Code`</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
